--- a/ListasDatos/Torres Sánchez José Luis_2021.xlsx
+++ b/ListasDatos/Torres Sánchez José Luis_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="265">
   <si>
     <t>NC</t>
   </si>
@@ -334,6 +334,9 @@
     <t>buenojoso1951@gmail.com</t>
   </si>
   <si>
+    <t>cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>misaelcocotle3@gmail.com</t>
   </si>
   <si>
@@ -439,6 +442,9 @@
     <t>2721546150</t>
   </si>
   <si>
+    <t>2721079631</t>
+  </si>
+  <si>
     <t>2451221093</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>JOSÉ SOCORRO BUENO GARCÍA</t>
   </si>
   <si>
+    <t>FRANCISCO JAVIER CORTÉZ LEYNES</t>
+  </si>
+  <si>
     <t>ANDRES COCOTLE MARTINEZ</t>
   </si>
   <si>
@@ -665,6 +674,9 @@
   </si>
   <si>
     <t>bernabejosealfredo718@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristianantoniof2020@gmail.com</t>
   </si>
   <si>
     <t>Bernardino colotl@gmail.com</t>
@@ -1218,16 +1230,16 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1247,19 +1259,19 @@
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1279,19 +1291,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1311,16 +1323,16 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1340,16 +1352,16 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1365,6 +1377,21 @@
       <c r="D7" t="s">
         <v>73</v>
       </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -1380,22 +1407,22 @@
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,22 +1439,22 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1444,19 +1471,19 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1473,22 +1500,22 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1505,22 +1532,22 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1537,22 +1564,22 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1569,16 +1596,16 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1595,19 +1622,19 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1624,22 +1651,22 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1656,22 +1683,22 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1688,19 +1715,19 @@
         <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1717,22 +1744,22 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1749,16 +1776,16 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1775,22 +1802,22 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1807,19 +1834,19 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1836,22 +1863,22 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1868,16 +1895,16 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1894,19 +1921,19 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1923,19 +1950,19 @@
         <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1952,19 +1979,19 @@
         <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1981,19 +2008,19 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2010,19 +2037,19 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2039,13 +2066,13 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2062,19 +2089,19 @@
         <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2091,22 +2118,22 @@
         <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2123,22 +2150,22 @@
         <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2155,19 +2182,19 @@
         <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2184,19 +2211,19 @@
         <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2213,22 +2240,22 @@
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2245,22 +2272,22 @@
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
